--- a/Assets/asoliddev - Auto Chess/Config/LevelConfig.xlsx
+++ b/Assets/asoliddev - Auto Chess/Config/LevelConfig.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D203DD-CD33-46AC-B4E7-85B309A49911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75CAFF7C-042A-4379-AC64-43B8BBE96747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="6795" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="12285" yWindow="3570" windowWidth="9075" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B5E94243-C29D-49EE-897E-F9CFCC1B027F}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyData" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,10 +61,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Enemy/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>敌人单位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -81,6 +78,98 @@
   </si>
   <si>
     <t>enemies</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy/1-1-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy/1-1-2</t>
+  </si>
+  <si>
+    <t>Enemy/1-1-3</t>
+  </si>
+  <si>
+    <t>Enemy/1-2-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy/1-2-2</t>
+  </si>
+  <si>
+    <t>Enemy/1-3-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy/1-3-2</t>
+  </si>
+  <si>
+    <t>Enemy/1-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy/1-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37,37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26,26,26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31,31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,0,5,-5;1,2,5,-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,5,-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,0,5,-5;1,2,5,-7;2,-2,5,-3;2,4,5,-9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,0,5,-5;2,2,5,-7;3,1,5,-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,-1,5,-4;1,0,5,-5;1,1,5,-6;1,2,5,-7;1,3,5,-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,-1,5,-4;1,0,5,-5;1,1,5,-6;1,2,5,-7;1,3,5,-8;2,-1,6,-5;2,0,6,-6;2,1,6,-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,0,5,-5;3,1,5,-6;3,2,5,-7;1,-1,6,-5;2,0,6,-6;1,1,6,-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,-1,5,-4;3,0,5,-5;1,1,5,-6;3,2,5,-7;1,3,5,-8;2,0,6,-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,0,5,-5;3,1,5,-6;3,2,5,-7;2,-2,7,-5;2,-1,7,-6;2,0,7,-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,0,5,-5;4,1,5,-6;3,2,5,-7;2,-2,7,-5;2,-1,7,-6;2,0,7,-7;4,0,6,-6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -140,14 +229,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -165,6 +257,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>361066</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7FE394E-42EE-19C9-4B1A-644C1A94D5D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4857750" y="28575"/>
+          <a:ext cx="7885816" cy="3790950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -430,10 +571,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA4"/>
+  <dimension ref="A1:AA12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B6"/>
+    </sheetView>
+    <sheetView workbookViewId="1">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -466,7 +610,7 @@
       <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="V1" s="1"/>
@@ -483,7 +627,7 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="V2" s="1"/>
@@ -500,22 +644,113 @@
       <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -543,45 +778,48 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A185AAB9-0B64-473D-BF5F-44006976D553}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="1">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="86.25" customWidth="1"/>
+    <col min="2" max="2" width="71.125" style="3" customWidth="1"/>
     <col min="3" max="3" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>11</v>
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -589,9 +827,85 @@
       <c r="A4">
         <v>1</v>
       </c>
+      <c r="B4" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/asoliddev - Auto Chess/Config/LevelConfig.xlsx
+++ b/Assets/asoliddev - Auto Chess/Config/LevelConfig.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75CAFF7C-042A-4379-AC64-43B8BBE96747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7681981-6730-4518-9499-B03450CE231E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="12285" yWindow="3570" windowWidth="9075" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B5E94243-C29D-49EE-897E-F9CFCC1B027F}"/>
+    <workbookView xWindow="28680" yWindow="6075" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="30660" yWindow="7650" windowWidth="13860" windowHeight="11385" activeTab="1" xr2:uid="{B5E94243-C29D-49EE-897E-F9CFCC1B027F}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyData" sheetId="1" r:id="rId1"/>
@@ -137,10 +137,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,1,5,-6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1,0,5,-5;1,2,5,-7;2,-2,5,-3;2,4,5,-9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -170,6 +166,10 @@
   </si>
   <si>
     <t>3,0,5,-5;4,1,5,-6;3,2,5,-7;2,-2,7,-5;2,-1,7,-6;2,0,7,-7;4,0,6,-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,5,-6;1,2,5,-7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -573,7 +573,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4:B6"/>
     </sheetView>
     <sheetView workbookViewId="1">
@@ -780,8 +780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A185AAB9-0B64-473D-BF5F-44006976D553}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
     <sheetView tabSelected="1" workbookViewId="1">
       <selection activeCell="D25" sqref="D25"/>
@@ -828,7 +828,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -844,7 +844,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -852,7 +852,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -860,7 +860,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -868,7 +868,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -876,7 +876,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -884,7 +884,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -892,7 +892,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -900,7 +900,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/asoliddev - Auto Chess/Config/LevelConfig.xlsx
+++ b/Assets/asoliddev - Auto Chess/Config/LevelConfig.xlsx
@@ -5,13 +5,13 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\project\unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7681981-6730-4518-9499-B03450CE231E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646A4BF9-453B-4325-8FB5-0B5893089E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="6075" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-    <workbookView minimized="1" xWindow="30660" yWindow="7650" windowWidth="13860" windowHeight="11385" activeTab="1" xr2:uid="{B5E94243-C29D-49EE-897E-F9CFCC1B027F}"/>
+    <workbookView xWindow="39585" yWindow="-1725" windowWidth="28800" windowHeight="27285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39930" yWindow="-1380" windowWidth="28800" windowHeight="27285" activeTab="1" xr2:uid="{B5E94243-C29D-49EE-897E-F9CFCC1B027F}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyData" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -169,7 +169,65 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,1,5,-6;1,2,5,-7</t>
+    <t>Enemy/Enemy_Droid_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy/Enemy_Droid_02</t>
+  </si>
+  <si>
+    <t>Enemy/Enemy_Droid_03</t>
+  </si>
+  <si>
+    <t>Enemy/Enemy_Droid_04</t>
+  </si>
+  <si>
+    <t>Enemy/Enemy_Droid_05</t>
+  </si>
+  <si>
+    <t>Enemy/Enemy_AssaultMech_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,1,5,-6;15,2,5,-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy/Enemy_AssaultMech_02</t>
+  </si>
+  <si>
+    <t>Enemy/Enemy_AssaultMech_03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy/Enemy_Orb_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy/Enemy_Orb_02</t>
+  </si>
+  <si>
+    <t>Enemy/Enemy_Orb_03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy/Enemy_SpiderBot_Acid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy/Enemy_SpiderBot_Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy/Enemy_SpiderBot_Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy/Enemy_SpiderBot_Ice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy/Enemy_SpiderBot_Lightning</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -571,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA12"/>
+  <dimension ref="A1:AA28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
     <sheetView workbookViewId="1">
       <selection activeCell="B12" sqref="B12"/>
@@ -753,6 +811,158 @@
         <v>22</v>
       </c>
     </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="V3:W3"/>
@@ -780,11 +990,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A185AAB9-0B64-473D-BF5F-44006976D553}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
     <sheetView tabSelected="1" workbookViewId="1">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -828,7 +1038,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">

--- a/Assets/asoliddev - Auto Chess/Config/LevelConfig.xlsx
+++ b/Assets/asoliddev - Auto Chess/Config/LevelConfig.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\project\unity\auto-chess\Assets\asoliddev - Auto Chess\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646A4BF9-453B-4325-8FB5-0B5893089E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6CF8E8-F29F-4564-BC78-67F0A651CEAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39585" yWindow="-1725" windowWidth="28800" windowHeight="27285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-    <workbookView xWindow="39930" yWindow="-1380" windowWidth="28800" windowHeight="27285" activeTab="1" xr2:uid="{B5E94243-C29D-49EE-897E-F9CFCC1B027F}"/>
+    <workbookView xWindow="40770" yWindow="915" windowWidth="28800" windowHeight="27285" activeTab="1" xr2:uid="{B5E94243-C29D-49EE-897E-F9CFCC1B027F}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyData" sheetId="1" r:id="rId1"/>
     <sheet name="LevelData" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,10 +72,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{int id, int x, int y, int z}[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>enemies</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -133,42 +128,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,0,5,-5;1,2,5,-7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,0,5,-5;1,2,5,-7;2,-2,5,-3;2,4,5,-9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,0,5,-5;2,2,5,-7;3,1,5,-6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,-1,5,-4;1,0,5,-5;1,1,5,-6;1,2,5,-7;1,3,5,-8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,-1,5,-4;1,0,5,-5;1,1,5,-6;1,2,5,-7;1,3,5,-8;2,-1,6,-5;2,0,6,-6;2,1,6,-7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,0,5,-5;3,1,5,-6;3,2,5,-7;1,-1,6,-5;2,0,6,-6;1,1,6,-7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,-1,5,-4;3,0,5,-5;1,1,5,-6;3,2,5,-7;1,3,5,-8;2,0,6,-6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,0,5,-5;3,1,5,-6;3,2,5,-7;2,-2,7,-5;2,-1,7,-6;2,0,7,-7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,0,5,-5;4,1,5,-6;3,2,5,-7;2,-2,7,-5;2,-1,7,-6;2,0,7,-7;4,0,6,-6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Enemy/Enemy_Droid_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -189,45 +148,54 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10,1,5,-6;15,2,5,-7</t>
+    <t>Enemy/Enemy_AssaultMech_03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy/Enemy_Orb_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy/Enemy_Orb_02</t>
+  </si>
+  <si>
+    <t>Enemy/Enemy_Orb_03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy/Enemy_SpiderBot_Acid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy/Enemy_SpiderBot_Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy/Enemy_SpiderBot_Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy/Enemy_SpiderBot_Ice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy/Enemy_SpiderBot_Lightning</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Enemy/Enemy_AssaultMech_02</t>
-  </si>
-  <si>
-    <t>Enemy/Enemy_AssaultMech_03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enemy/Enemy_Orb_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enemy/Enemy_Orb_02</t>
-  </si>
-  <si>
-    <t>Enemy/Enemy_Orb_03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enemy/Enemy_SpiderBot_Acid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enemy/Enemy_SpiderBot_Physical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enemy/Enemy_SpiderBot_Fire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enemy/Enemy_SpiderBot_Ice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enemy/Enemy_SpiderBot_Lightning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{int id, float x, float y, float z}[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,3,0,10;6,-6,0,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,0,5,10;1,0,5,10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -287,7 +255,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -296,6 +264,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -315,55 +284,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>361066</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7FE394E-42EE-19C9-4B1A-644C1A94D5D5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4857750" y="28575"/>
-          <a:ext cx="7885816" cy="3790950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -629,20 +549,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA28"/>
+  <dimension ref="A1:AA29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.625" customWidth="1"/>
     <col min="2" max="2" width="38.75" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
     <col min="4" max="4" width="15.5" customWidth="1"/>
     <col min="7" max="7" width="12.625" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
@@ -705,22 +622,22 @@
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
-      <c r="AA3" s="4"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="C4" s="4">
+        <v>401</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
@@ -728,10 +645,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
+      </c>
+      <c r="C5" s="4">
+        <v>401</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
@@ -739,10 +656,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6">
-        <v>7</v>
+        <v>28</v>
+      </c>
+      <c r="C6" s="4">
+        <v>402</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
@@ -750,10 +667,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
+      </c>
+      <c r="C7" s="4">
+        <v>402</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
@@ -761,10 +678,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
+      </c>
+      <c r="C8" s="4">
+        <v>403</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
@@ -772,10 +689,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="C9" s="4">
+        <v>407</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
@@ -783,10 +700,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>26</v>
+        <v>41</v>
+      </c>
+      <c r="C10" s="4">
+        <v>408</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
@@ -794,10 +711,10 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11">
-        <v>13</v>
+        <v>32</v>
+      </c>
+      <c r="C11" s="4">
+        <v>409</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
@@ -805,10 +722,10 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12">
-        <v>22</v>
+        <v>33</v>
+      </c>
+      <c r="C12" s="4">
+        <v>404</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
@@ -816,10 +733,10 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13">
-        <v>301</v>
+        <v>34</v>
+      </c>
+      <c r="C13" s="4">
+        <v>405</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
@@ -827,10 +744,10 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14">
-        <v>301</v>
+        <v>35</v>
+      </c>
+      <c r="C14" s="4">
+        <v>406</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
@@ -838,65 +755,55 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15">
-        <v>301</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16">
-        <v>301</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C16" s="4"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17">
-        <v>301</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C17" s="4"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18">
-        <v>13</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C18" s="4"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19">
-        <v>13</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C19" s="4"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -904,7 +811,10 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>13</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -912,7 +822,10 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>14</v>
+      </c>
+      <c r="C22" s="4">
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -920,7 +833,10 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>15</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -928,7 +844,10 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>16</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -936,7 +855,10 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>17</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -944,7 +866,10 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>18</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -952,7 +877,10 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>19</v>
+      </c>
+      <c r="C27" s="4">
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -960,8 +888,14 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C28" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C29" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -988,13 +922,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A185AAB9-0B64-473D-BF5F-44006976D553}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1016,7 +947,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>10</v>
@@ -1027,7 +958,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>3</v>
@@ -1038,7 +969,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1046,76 +977,11 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>7</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>8</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>9</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>10</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>